--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rarres2-Cmklr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rarres2-Cmklr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cmklr1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2527133333333333</v>
+        <v>0.7062263333333333</v>
       </c>
       <c r="H2">
-        <v>0.7581399999999999</v>
+        <v>2.118679</v>
       </c>
       <c r="I2">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304152</v>
       </c>
       <c r="J2">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304151</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.982494</v>
+        <v>5.615606</v>
       </c>
       <c r="N2">
-        <v>8.947482000000001</v>
+        <v>16.846818</v>
       </c>
       <c r="O2">
-        <v>0.03298370693390099</v>
+        <v>0.04988642609231769</v>
       </c>
       <c r="P2">
-        <v>0.03298370693390099</v>
+        <v>0.04988642609231769</v>
       </c>
       <c r="Q2">
-        <v>0.7537160003866666</v>
+        <v>3.965888834824666</v>
       </c>
       <c r="R2">
-        <v>6.78344400348</v>
+        <v>35.692999513422</v>
       </c>
       <c r="S2">
-        <v>0.0003855350388469141</v>
+        <v>0.001702349763890683</v>
       </c>
       <c r="T2">
-        <v>0.000385535038846914</v>
+        <v>0.001702349763890683</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2527133333333333</v>
+        <v>0.7062263333333333</v>
       </c>
       <c r="H3">
-        <v>0.7581399999999999</v>
+        <v>2.118679</v>
       </c>
       <c r="I3">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304152</v>
       </c>
       <c r="J3">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304151</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>53.848873</v>
       </c>
       <c r="O3">
-        <v>0.1985067358339311</v>
+        <v>0.1594560956893523</v>
       </c>
       <c r="P3">
-        <v>0.1985067358339311</v>
+        <v>0.1594560956893523</v>
       </c>
       <c r="Q3">
-        <v>4.536109397357777</v>
+        <v>12.67649737764078</v>
       </c>
       <c r="R3">
-        <v>40.82498457622</v>
+        <v>114.088476398767</v>
       </c>
       <c r="S3">
-        <v>0.002320275955170129</v>
+        <v>0.005441360869294688</v>
       </c>
       <c r="T3">
-        <v>0.002320275955170129</v>
+        <v>0.005441360869294688</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2527133333333333</v>
+        <v>0.7062263333333333</v>
       </c>
       <c r="H4">
-        <v>0.7581399999999999</v>
+        <v>2.118679</v>
       </c>
       <c r="I4">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304152</v>
       </c>
       <c r="J4">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304151</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.28368133333333</v>
+        <v>44.103667</v>
       </c>
       <c r="N4">
-        <v>96.851044</v>
+        <v>132.311001</v>
       </c>
       <c r="O4">
-        <v>0.3570285418331492</v>
+        <v>0.3917964195129949</v>
       </c>
       <c r="P4">
-        <v>0.3570285418331492</v>
+        <v>0.3917964195129949</v>
       </c>
       <c r="Q4">
-        <v>8.158516722017776</v>
+        <v>31.14717103196433</v>
       </c>
       <c r="R4">
-        <v>73.42665049816</v>
+        <v>280.324539287679</v>
       </c>
       <c r="S4">
-        <v>0.004173182020472819</v>
+        <v>0.01336986019036295</v>
       </c>
       <c r="T4">
-        <v>0.004173182020472819</v>
+        <v>0.01336986019036295</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2527133333333333</v>
+        <v>0.7062263333333333</v>
       </c>
       <c r="H5">
-        <v>0.7581399999999999</v>
+        <v>2.118679</v>
       </c>
       <c r="I5">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304152</v>
       </c>
       <c r="J5">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304151</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6586420000000001</v>
+        <v>1.406862666666666</v>
       </c>
       <c r="N5">
-        <v>1.975926</v>
+        <v>4.220587999999999</v>
       </c>
       <c r="O5">
-        <v>0.00728398940697229</v>
+        <v>0.01249791214745259</v>
       </c>
       <c r="P5">
-        <v>0.00728398940697229</v>
+        <v>0.01249791214745259</v>
       </c>
       <c r="Q5">
-        <v>0.1664476152933333</v>
+        <v>0.9935634625835553</v>
       </c>
       <c r="R5">
-        <v>1.49802853764</v>
+        <v>8.942071163251997</v>
       </c>
       <c r="S5">
-        <v>8.514001002389582E-05</v>
+        <v>0.0004264851074713249</v>
       </c>
       <c r="T5">
-        <v>8.514001002389582E-05</v>
+        <v>0.0004264851074713249</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2527133333333333</v>
+        <v>0.7062263333333333</v>
       </c>
       <c r="H6">
-        <v>0.7581399999999999</v>
+        <v>2.118679</v>
       </c>
       <c r="I6">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304152</v>
       </c>
       <c r="J6">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304151</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>36.548809</v>
+        <v>43.49205533333333</v>
       </c>
       <c r="N6">
-        <v>109.646427</v>
+        <v>130.476166</v>
       </c>
       <c r="O6">
-        <v>0.4041970259920465</v>
+        <v>0.3863631465578826</v>
       </c>
       <c r="P6">
-        <v>0.4041970259920465</v>
+        <v>0.3863631465578826</v>
       </c>
       <c r="Q6">
-        <v>9.236371351753331</v>
+        <v>30.71523476719044</v>
       </c>
       <c r="R6">
-        <v>83.12734216577999</v>
+        <v>276.4371129047139</v>
       </c>
       <c r="S6">
-        <v>0.004724517969733867</v>
+        <v>0.01318445242202187</v>
       </c>
       <c r="T6">
-        <v>0.004724517969733867</v>
+        <v>0.01318445242202186</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,40 +856,40 @@
         <v>54.838014</v>
       </c>
       <c r="I7">
-        <v>0.8454670731839307</v>
+        <v>0.883248602930037</v>
       </c>
       <c r="J7">
-        <v>0.8454670731839307</v>
+        <v>0.8832486029300368</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>2.982494</v>
+        <v>5.615606</v>
       </c>
       <c r="N7">
-        <v>8.947482000000001</v>
+        <v>16.846818</v>
       </c>
       <c r="O7">
-        <v>0.03298370693390099</v>
+        <v>0.04988642609231769</v>
       </c>
       <c r="P7">
-        <v>0.03298370693390099</v>
+        <v>0.04988642609231769</v>
       </c>
       <c r="Q7">
-        <v>54.518015908972</v>
+        <v>102.649560148828</v>
       </c>
       <c r="R7">
-        <v>490.662143180748</v>
+        <v>923.846041339452</v>
       </c>
       <c r="S7">
-        <v>0.02788663816416179</v>
+        <v>0.04406211615121215</v>
       </c>
       <c r="T7">
-        <v>0.02788663816416179</v>
+        <v>0.04406211615121214</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>54.838014</v>
       </c>
       <c r="I8">
-        <v>0.8454670731839307</v>
+        <v>0.883248602930037</v>
       </c>
       <c r="J8">
-        <v>0.8454670731839307</v>
+        <v>0.8832486029300368</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>53.848873</v>
       </c>
       <c r="O8">
-        <v>0.1985067358339311</v>
+        <v>0.1594560956893523</v>
       </c>
       <c r="P8">
-        <v>0.1985067358339311</v>
+        <v>0.1594560956893523</v>
       </c>
       <c r="Q8">
         <v>328.1072501620246</v>
@@ -948,10 +948,10 @@
         <v>2952.965251458222</v>
       </c>
       <c r="S8">
-        <v>0.1678309089528094</v>
+        <v>0.1408393737462987</v>
       </c>
       <c r="T8">
-        <v>0.1678309089528094</v>
+        <v>0.1408393737462987</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>54.838014</v>
       </c>
       <c r="I9">
-        <v>0.8454670731839307</v>
+        <v>0.883248602930037</v>
       </c>
       <c r="J9">
-        <v>0.8454670731839307</v>
+        <v>0.8832486029300368</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>32.28368133333333</v>
+        <v>44.103667</v>
       </c>
       <c r="N9">
-        <v>96.851044</v>
+        <v>132.311001</v>
       </c>
       <c r="O9">
-        <v>0.3570285418331492</v>
+        <v>0.3917964195129949</v>
       </c>
       <c r="P9">
-        <v>0.3570285418331492</v>
+        <v>0.3917964195129949</v>
       </c>
       <c r="Q9">
-        <v>590.1243229762906</v>
+        <v>806.185836132446</v>
       </c>
       <c r="R9">
-        <v>5311.118906786616</v>
+        <v>7255.672525192014</v>
       </c>
       <c r="S9">
-        <v>0.3018558763067992</v>
+        <v>0.3460536401678434</v>
       </c>
       <c r="T9">
-        <v>0.3018558763067992</v>
+        <v>0.3460536401678433</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,40 +1042,40 @@
         <v>54.838014</v>
       </c>
       <c r="I10">
-        <v>0.8454670731839307</v>
+        <v>0.883248602930037</v>
       </c>
       <c r="J10">
-        <v>0.8454670731839307</v>
+        <v>0.8832486029300368</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6586420000000001</v>
+        <v>1.406862666666666</v>
       </c>
       <c r="N10">
-        <v>1.975926</v>
+        <v>4.220587999999999</v>
       </c>
       <c r="O10">
-        <v>0.00728398940697229</v>
+        <v>0.01249791214745259</v>
       </c>
       <c r="P10">
-        <v>0.00728398940697229</v>
+        <v>0.01249791214745259</v>
       </c>
       <c r="Q10">
-        <v>12.039539738996</v>
+        <v>25.71651820358133</v>
       </c>
       <c r="R10">
-        <v>108.355857650964</v>
+        <v>231.448663832232</v>
       </c>
       <c r="S10">
-        <v>0.006158373205015617</v>
+        <v>0.01103876344377984</v>
       </c>
       <c r="T10">
-        <v>0.006158373205015617</v>
+        <v>0.01103876344377984</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>54.838014</v>
       </c>
       <c r="I11">
-        <v>0.8454670731839307</v>
+        <v>0.883248602930037</v>
       </c>
       <c r="J11">
-        <v>0.8454670731839307</v>
+        <v>0.8832486029300368</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.548809</v>
+        <v>43.49205533333333</v>
       </c>
       <c r="N11">
-        <v>109.646427</v>
+        <v>130.476166</v>
       </c>
       <c r="O11">
-        <v>0.4041970259920465</v>
+        <v>0.3863631465578826</v>
       </c>
       <c r="P11">
-        <v>0.4041970259920465</v>
+        <v>0.3863631465578826</v>
       </c>
       <c r="Q11">
-        <v>668.088033208442</v>
+        <v>795.0059797527025</v>
       </c>
       <c r="R11">
-        <v>6012.792298875978</v>
+        <v>7155.053817774323</v>
       </c>
       <c r="S11">
-        <v>0.3417352765551447</v>
+        <v>0.3412547094209029</v>
       </c>
       <c r="T11">
-        <v>0.3417352765551447</v>
+        <v>0.3412547094209029</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>3.088350666666667</v>
+        <v>0.03164166666666667</v>
       </c>
       <c r="H12">
-        <v>9.265052000000001</v>
+        <v>0.094925</v>
       </c>
       <c r="I12">
-        <v>0.1428442758218218</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="J12">
-        <v>0.1428442758218218</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>2.982494</v>
+        <v>5.615606</v>
       </c>
       <c r="N12">
-        <v>8.947482000000001</v>
+        <v>16.846818</v>
       </c>
       <c r="O12">
-        <v>0.03298370693390099</v>
+        <v>0.04988642609231769</v>
       </c>
       <c r="P12">
-        <v>0.03298370693390099</v>
+        <v>0.04988642609231769</v>
       </c>
       <c r="Q12">
-        <v>9.210987333229335</v>
+        <v>0.1776871331833333</v>
       </c>
       <c r="R12">
-        <v>82.89888599906402</v>
+        <v>1.59918419865</v>
       </c>
       <c r="S12">
-        <v>0.004711533730892289</v>
+        <v>7.627184266107472E-05</v>
       </c>
       <c r="T12">
-        <v>0.004711533730892288</v>
+        <v>7.627184266107471E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>3.088350666666667</v>
+        <v>0.03164166666666667</v>
       </c>
       <c r="H13">
-        <v>9.265052000000001</v>
+        <v>0.094925</v>
       </c>
       <c r="I13">
-        <v>0.1428442758218218</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="J13">
-        <v>0.1428442758218218</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>53.848873</v>
       </c>
       <c r="O13">
-        <v>0.1985067358339311</v>
+        <v>0.1594560956893523</v>
       </c>
       <c r="P13">
-        <v>0.1985067358339311</v>
+        <v>0.1594560956893523</v>
       </c>
       <c r="Q13">
-        <v>55.43473427626623</v>
+        <v>0.5679560299472222</v>
       </c>
       <c r="R13">
-        <v>498.912608486396</v>
+        <v>5.111604269524999</v>
       </c>
       <c r="S13">
-        <v>0.02835555092595156</v>
+        <v>0.0002437939775292993</v>
       </c>
       <c r="T13">
-        <v>0.02835555092595156</v>
+        <v>0.0002437939775292993</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>3.088350666666667</v>
+        <v>0.03164166666666667</v>
       </c>
       <c r="H14">
-        <v>9.265052000000001</v>
+        <v>0.094925</v>
       </c>
       <c r="I14">
-        <v>0.1428442758218218</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="J14">
-        <v>0.1428442758218218</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>32.28368133333333</v>
+        <v>44.103667</v>
       </c>
       <c r="N14">
-        <v>96.851044</v>
+        <v>132.311001</v>
       </c>
       <c r="O14">
-        <v>0.3570285418331492</v>
+        <v>0.3917964195129949</v>
       </c>
       <c r="P14">
-        <v>0.3570285418331492</v>
+        <v>0.3917964195129949</v>
       </c>
       <c r="Q14">
-        <v>99.70332876825424</v>
+        <v>1.395513529991667</v>
       </c>
       <c r="R14">
-        <v>897.3299589142881</v>
+        <v>12.559621769925</v>
       </c>
       <c r="S14">
-        <v>0.05099948350587719</v>
+        <v>0.0005990213612209322</v>
       </c>
       <c r="T14">
-        <v>0.05099948350587719</v>
+        <v>0.000599021361220932</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>3.088350666666667</v>
+        <v>0.03164166666666667</v>
       </c>
       <c r="H15">
-        <v>9.265052000000001</v>
+        <v>0.094925</v>
       </c>
       <c r="I15">
-        <v>0.1428442758218218</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="J15">
-        <v>0.1428442758218218</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.6586420000000001</v>
+        <v>1.406862666666666</v>
       </c>
       <c r="N15">
-        <v>1.975926</v>
+        <v>4.220587999999999</v>
       </c>
       <c r="O15">
-        <v>0.00728398940697229</v>
+        <v>0.01249791214745259</v>
       </c>
       <c r="P15">
-        <v>0.00728398940697229</v>
+        <v>0.01249791214745259</v>
       </c>
       <c r="Q15">
-        <v>2.034117459794667</v>
+        <v>0.04451547954444443</v>
       </c>
       <c r="R15">
-        <v>18.307057138152</v>
+        <v>0.4006393158999999</v>
       </c>
       <c r="S15">
-        <v>0.001040476191932778</v>
+        <v>1.910817959054464E-05</v>
       </c>
       <c r="T15">
-        <v>0.001040476191932778</v>
+        <v>1.910817959054464E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>3.088350666666667</v>
+        <v>0.03164166666666667</v>
       </c>
       <c r="H16">
-        <v>9.265052000000001</v>
+        <v>0.094925</v>
       </c>
       <c r="I16">
-        <v>0.1428442758218218</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="J16">
-        <v>0.1428442758218218</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>36.548809</v>
+        <v>43.49205533333333</v>
       </c>
       <c r="N16">
-        <v>109.646427</v>
+        <v>130.476166</v>
       </c>
       <c r="O16">
-        <v>0.4041970259920465</v>
+        <v>0.3863631465578826</v>
       </c>
       <c r="P16">
-        <v>0.4041970259920465</v>
+        <v>0.3863631465578826</v>
       </c>
       <c r="Q16">
-        <v>112.8755386410227</v>
+        <v>1.376161117505555</v>
       </c>
       <c r="R16">
-        <v>1015.879847769204</v>
+        <v>12.38545005755</v>
       </c>
       <c r="S16">
-        <v>0.05773723146716795</v>
+        <v>0.0005907143772890683</v>
       </c>
       <c r="T16">
-        <v>0.05773723146716795</v>
+        <v>0.0005907143772890681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.678369333333333</v>
+      </c>
+      <c r="H17">
+        <v>5.035108</v>
+      </c>
+      <c r="I17">
+        <v>0.08109797897863065</v>
+      </c>
+      <c r="J17">
+        <v>0.08109797897863062</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.615606</v>
+      </c>
+      <c r="N17">
+        <v>16.846818</v>
+      </c>
+      <c r="O17">
+        <v>0.04988642609231769</v>
+      </c>
+      <c r="P17">
+        <v>0.04988642609231769</v>
+      </c>
+      <c r="Q17">
+        <v>9.425060898482666</v>
+      </c>
+      <c r="R17">
+        <v>84.825548086344</v>
+      </c>
+      <c r="S17">
+        <v>0.004045688334553792</v>
+      </c>
+      <c r="T17">
+        <v>0.00404568833455379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.678369333333333</v>
+      </c>
+      <c r="H18">
+        <v>5.035108</v>
+      </c>
+      <c r="I18">
+        <v>0.08109797897863065</v>
+      </c>
+      <c r="J18">
+        <v>0.08109797897863062</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>17.94962433333333</v>
+      </c>
+      <c r="N18">
+        <v>53.848873</v>
+      </c>
+      <c r="O18">
+        <v>0.1594560956893523</v>
+      </c>
+      <c r="P18">
+        <v>0.1594560956893523</v>
+      </c>
+      <c r="Q18">
+        <v>30.12609902592044</v>
+      </c>
+      <c r="R18">
+        <v>271.134891233284</v>
+      </c>
+      <c r="S18">
+        <v>0.01293156709622961</v>
+      </c>
+      <c r="T18">
+        <v>0.0129315670962296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.678369333333333</v>
+      </c>
+      <c r="H19">
+        <v>5.035108</v>
+      </c>
+      <c r="I19">
+        <v>0.08109797897863065</v>
+      </c>
+      <c r="J19">
+        <v>0.08109797897863062</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>44.103667</v>
+      </c>
+      <c r="N19">
+        <v>132.311001</v>
+      </c>
+      <c r="O19">
+        <v>0.3917964195129949</v>
+      </c>
+      <c r="P19">
+        <v>0.3917964195129949</v>
+      </c>
+      <c r="Q19">
+        <v>74.02224218034534</v>
+      </c>
+      <c r="R19">
+        <v>666.2001796231081</v>
+      </c>
+      <c r="S19">
+        <v>0.03177389779356762</v>
+      </c>
+      <c r="T19">
+        <v>0.0317738977935676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.678369333333333</v>
+      </c>
+      <c r="H20">
+        <v>5.035108</v>
+      </c>
+      <c r="I20">
+        <v>0.08109797897863065</v>
+      </c>
+      <c r="J20">
+        <v>0.08109797897863062</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.406862666666666</v>
+      </c>
+      <c r="N20">
+        <v>4.220587999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.01249791214745259</v>
+      </c>
+      <c r="P20">
+        <v>0.01249791214745259</v>
+      </c>
+      <c r="Q20">
+        <v>2.361235155944888</v>
+      </c>
+      <c r="R20">
+        <v>21.251116403504</v>
+      </c>
+      <c r="S20">
+        <v>0.001013555416610883</v>
+      </c>
+      <c r="T20">
+        <v>0.001013555416610882</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.678369333333333</v>
+      </c>
+      <c r="H21">
+        <v>5.035108</v>
+      </c>
+      <c r="I21">
+        <v>0.08109797897863065</v>
+      </c>
+      <c r="J21">
+        <v>0.08109797897863062</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>43.49205533333333</v>
+      </c>
+      <c r="N21">
+        <v>130.476166</v>
+      </c>
+      <c r="O21">
+        <v>0.3863631465578826</v>
+      </c>
+      <c r="P21">
+        <v>0.3863631465578826</v>
+      </c>
+      <c r="Q21">
+        <v>72.99573191510311</v>
+      </c>
+      <c r="R21">
+        <v>656.9615872359279</v>
+      </c>
+      <c r="S21">
+        <v>0.03133327033766875</v>
+      </c>
+      <c r="T21">
+        <v>0.03133327033766874</v>
       </c>
     </row>
   </sheetData>
